--- a/data/trans_orig/P33_2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Clase-trans_orig.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,41</t>
+          <t>7,23; 7,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,39</t>
+          <t>7,26; 7,4</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,5</t>
+          <t>7,27; 7,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,33</t>
+          <t>7,11; 7,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 9,16</t>
+          <t>7,14; 9,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,42</t>
+          <t>7,25; 7,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 7,19</t>
+          <t>6,51; 7,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 7,28</t>
+          <t>6,69; 7,27</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,43</t>
+          <t>7,19; 7,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,17</t>
+          <t>7,04; 7,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,25</t>
+          <t>7,11; 7,24</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 8,36</t>
+          <t>7,87; 8,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 7,55</t>
+          <t>7,37; 7,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,71</t>
+          <t>7,53; 7,72</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,15</t>
+          <t>7,36; 8,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,26</t>
+          <t>6,94; 7,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,64</t>
+          <t>7,22; 7,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y los fines de semana</t>
+          <t>Número medio de horas que duerme habitualmente al día durante los fines de semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
